--- a/trunk/DOCS/Test Cases/TC04- Authentication Authorization.xlsx
+++ b/trunk/DOCS/Test Cases/TC04- Authentication Authorization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>Intput Type</t>
   </si>
@@ -180,7 +180,28 @@
     <t>Nothing is returned</t>
   </si>
   <si>
-    <t>Tigran add login test cases about mobile application</t>
+    <t>TC04.09</t>
+  </si>
+  <si>
+    <t>Login with correct credentials for a volunteer via mobile app.</t>
+  </si>
+  <si>
+    <t>Login with incorrect username/correct password as volunteer via mobile app.</t>
+  </si>
+  <si>
+    <t>TC04.10</t>
+  </si>
+  <si>
+    <t>Login with correct username/incorrect password as volunteer via mobile app.</t>
+  </si>
+  <si>
+    <t>TC04.11</t>
+  </si>
+  <si>
+    <t>TC04.12</t>
+  </si>
+  <si>
+    <t>Login with incorrect username/incorrect password as volunteer via mobile app.</t>
   </si>
 </sst>
 </file>
@@ -379,6 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,8 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,49 +1076,49 @@
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="30.75" thickTop="1">
       <c r="A4" s="8" t="s">
@@ -1237,8 +1258,74 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45">
+      <c r="A15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
